--- a/Documents/External/Registration_OpenSourceSoftware for IP Assessment_Form.xlsx
+++ b/Documents/External/Registration_OpenSourceSoftware for IP Assessment_Form.xlsx
@@ -834,7 +834,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
       <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>

--- a/Documents/External/Registration_OpenSourceSoftware for IP Assessment_Form.xlsx
+++ b/Documents/External/Registration_OpenSourceSoftware for IP Assessment_Form.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27610"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Registration/BrandNew/Documents/External/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vinayak/user_registration_android/Documents/External/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -84,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="79">
   <si>
     <t xml:space="preserve">Open Source Software  List  </t>
   </si>
@@ -285,6 +288,42 @@
   </si>
   <si>
     <t xml:space="preserve">prx system component for andorid </t>
+  </si>
+  <si>
+    <t>https://github.com/google/dagger</t>
+  </si>
+  <si>
+    <t>https://github.com/google/dagger#license</t>
+  </si>
+  <si>
+    <t>rxjava.jar</t>
+  </si>
+  <si>
+    <t>dagger.jar</t>
+  </si>
+  <si>
+    <t>https://github.com/ReactiveX/RxJava</t>
+  </si>
+  <si>
+    <t>https://github.com/ReactiveX/RxJava#license</t>
+  </si>
+  <si>
+    <t>rxandroid</t>
+  </si>
+  <si>
+    <t>https://github.com/ReactiveX/RxAndroid</t>
+  </si>
+  <si>
+    <t>https://github.com/ReactiveX/RxAndroid#license</t>
+  </si>
+  <si>
+    <t>butterfork</t>
+  </si>
+  <si>
+    <t>https://github.com/oguzbabaoglu/butterfork</t>
+  </si>
+  <si>
+    <t>https://github.com/oguzbabaoglu/butterfork#license</t>
   </si>
 </sst>
 </file>
@@ -511,6 +550,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -522,9 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -832,10 +871,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -895,15 +934,15 @@
       <c r="B6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="G6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="H6" s="25" t="s">
         <v>33</v>
       </c>
     </row>
@@ -912,14 +951,14 @@
         <v>2</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="20">
-        <v>42577</v>
+        <v>42859</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -959,18 +998,18 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25" t="s">
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1137,11 +1176,17 @@
       <c r="G23" s="11"/>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="C24" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>78</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -1165,77 +1210,103 @@
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="13" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B28" s="9"/>
-      <c r="C28" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>60</v>
+      <c r="C28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>57</v>
+      </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="9"/>
+      <c r="C29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="18"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>32</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="B31" s="9"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="9"/>
+      <c r="C31" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>60</v>
+      </c>
       <c r="E31" s="9"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -1243,79 +1314,67 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="12"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
       <c r="F32" s="11"/>
-      <c r="G32" s="24"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="18"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="18"/>
-    </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>64</v>
-      </c>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="9"/>
       <c r="C34" s="12"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
       <c r="F34" s="11"/>
-      <c r="G34" s="24"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="18"/>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>65</v>
-      </c>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="12"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="G35" s="24"/>
       <c r="H35" s="18"/>
     </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>66</v>
-      </c>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="12"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9"/>
       <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="18"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="9"/>
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="C37" s="12"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
       <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
+      <c r="G37" s="24"/>
       <c r="H37" s="18"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="9"/>
+    <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A38" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
@@ -1323,9 +1382,13 @@
       <c r="G38" s="11"/>
       <c r="H38" s="18"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="9"/>
+    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>66</v>
+      </c>
       <c r="C39" s="12"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
@@ -1412,6 +1475,36 @@
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="12"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="12"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="12"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Documents/External/Registration_OpenSourceSoftware for IP Assessment_Form.xlsx
+++ b/Documents/External/Registration_OpenSourceSoftware for IP Assessment_Form.xlsx
@@ -266,9 +266,6 @@
     <t>https://github.com/mcxiaoke/android-volley#license</t>
   </si>
   <si>
-    <t xml:space="preserve">JDK7 </t>
-  </si>
-  <si>
     <t>http://www.oracle.com/technetwork/java/javase/terms/license/index.html</t>
   </si>
   <si>
@@ -317,13 +314,16 @@
     <t>https://github.com/ReactiveX/RxAndroid#license</t>
   </si>
   <si>
-    <t>butterfork</t>
-  </si>
-  <si>
-    <t>https://github.com/oguzbabaoglu/butterfork</t>
-  </si>
-  <si>
-    <t>https://github.com/oguzbabaoglu/butterfork#license</t>
+    <t>JDK8</t>
+  </si>
+  <si>
+    <t>https://github.com/JakeWharton/butterknife#license</t>
+  </si>
+  <si>
+    <t>https://github.com/JakeWharton/butterknife</t>
+  </si>
+  <si>
+    <t>butternife</t>
   </si>
 </sst>
 </file>
@@ -873,8 +873,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -958,7 +958,7 @@
         <v>2</v>
       </c>
       <c r="H7" s="20">
-        <v>42859</v>
+        <v>42923</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30" x14ac:dyDescent="0.2">
@@ -1178,14 +1178,14 @@
     </row>
     <row r="24" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="11"/>
@@ -1210,14 +1210,14 @@
     </row>
     <row r="26" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="11"/>
@@ -1226,14 +1226,14 @@
     </row>
     <row r="27" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A27" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="11"/>
@@ -1242,14 +1242,14 @@
     </row>
     <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="11"/>
@@ -1298,14 +1298,14 @@
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="11"/>
@@ -1356,10 +1356,10 @@
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="9"/>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
@@ -1384,10 +1384,10 @@
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="9"/>
